--- a/Creating User Accounts/Data/Output/Summary.xlsx
+++ b/Creating User Accounts/Data/Output/Summary.xlsx
@@ -34,22 +34,28 @@
     <x:t>Screenshot Path</x:t>
   </x:si>
   <x:si>
-    <x:t>04/23/2024 12:12:24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04/23/2024 12:12:57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>442</x:t>
+    <x:t>04/23/2024 14:13:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04/23/2024 14:14:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183</x:t>
   </x:si>
   <x:si>
     <x:t>Completed</x:t>
   </x:si>
   <x:si>
-    <x:t>04/23/2024 12:13:08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>508</x:t>
+    <x:t>04/23/2024 14:14:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04/23/2024 14:14:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
   </x:si>
   <x:si>
     <x:t>Failed</x:t>
@@ -58,13 +64,7 @@
     <x:t>Personal Info Generated did not Match</x:t>
   </x:si>
   <x:si>
-    <x:t>D:\ITI CU\RPA\RPA Task\Exceptions_Screenshots\ExceptionScreenshot_240423.121308.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04/23/2024 12:13:37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>603</x:t>
+    <x:t>C:\Users\pc\Desktop\screenshots\ExceptionScreenshot_240423.021451.png</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -466,13 +466,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -480,13 +474,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
